--- a/templates/TemplateAll.xlsx
+++ b/templates/TemplateAll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D9C4E7-EFE5-4940-8F88-52933AA0C173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FAB3F-9CE8-4F8D-B8FB-BFF4EB8620E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BECE5613-4CE6-4BB7-8FF1-F4E60925457F}"/>
+    <workbookView xWindow="-27825" yWindow="1515" windowWidth="16485" windowHeight="13440" xr2:uid="{BECE5613-4CE6-4BB7-8FF1-F4E60925457F}"/>
   </bookViews>
   <sheets>
-    <sheet name="iRacingCalendarTemplateSmall" sheetId="2" r:id="rId1"/>
-    <sheet name="iRacingCalendarTemplateLarge" sheetId="3" r:id="rId2"/>
+    <sheet name="Small" sheetId="2" r:id="rId1"/>
+    <sheet name="Large" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -950,8 +950,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1008,7 @@
       <c r="K3" s="29"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1413,8 @@
       <formula>$L5="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.2" right="0.2" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1423,7 +1424,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:EV18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="EF6" sqref="EF6"/>
     </sheetView>
   </sheetViews>
